--- a/form/BlankTemplate.xlsx
+++ b/form/BlankTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zack/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zack/Documents/svn/SGI_CFDA_server/form/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>性别</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>生日</t>
+  </si>
+  <si>
+    <t>送检医师</t>
+  </si>
+  <si>
+    <t>年龄</t>
   </si>
 </sst>
 </file>
@@ -486,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -507,7 +513,7 @@
     <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -517,50 +523,56 @@
       <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
       <c r="K2" s="4"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
